--- a/DATA_goal/Junction_Flooding_241.xlsx
+++ b/DATA_goal/Junction_Flooding_241.xlsx
@@ -451,7 +451,7 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -462,14 +462,14 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>41673.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.41</v>
+        <v>2.84</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.11</v>
+        <v>2.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.02</v>
+        <v>3</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>1.62</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>150.56</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>16.22</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.25</v>
+        <v>0.93</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.2</v>
+        <v>2.72</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41673.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>14.27</v>
+        <v>1.43</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.18</v>
+        <v>0.32</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>37.36</v>
+        <v>3.74</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.23</v>
+        <v>0.32</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41673.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.47</v>
+        <v>2.05</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.08</v>
+        <v>1.61</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.53</v>
+        <v>2.65</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.18</v>
+        <v>0.82</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA4" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>104.8</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>13.08</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>6.01</v>
-      </c>
       <c r="AB4" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.09</v>
+        <v>2.41</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41673.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.72</v>
+        <v>1.67</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>36.58</v>
+        <v>3.66</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.6</v>
+        <v>2.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.09</v>
+        <v>1.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>48.98</v>
+        <v>4.9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.36</v>
+        <v>2.04</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.98</v>
+        <v>0.9</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.21</v>
+        <v>1.32</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.66</v>
+        <v>1.87</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>192.96</v>
+        <v>19.3</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>36.75</v>
+        <v>3.67</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.6</v>
+        <v>2.46</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.9</v>
+        <v>1.29</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.23</v>
+        <v>2.42</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.58</v>
+        <v>4.46</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41673.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>19.42</v>
+        <v>1.94</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>42.43</v>
+        <v>4.24</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>34.57</v>
+        <v>3.46</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>15.24</v>
+        <v>1.52</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>59.18</v>
+        <v>5.92</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>23.62</v>
+        <v>2.36</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>18.09</v>
+        <v>1.81</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>21.72</v>
+        <v>2.17</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>225.02</v>
+        <v>22.5</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>42.69</v>
+        <v>4.27</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>28.68</v>
+        <v>2.87</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>15.03</v>
+        <v>1.5</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>28.91</v>
+        <v>2.89</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>12.45</v>
+        <v>1.24</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>17.86</v>
+        <v>1.79</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>53.89</v>
+        <v>5.39</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41673.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>36.79</v>
+        <v>3.68</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>29.99</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>13.21</v>
+        <v>1.32</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>52.75</v>
+        <v>5.28</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>20.48</v>
+        <v>2.05</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9.1</v>
+        <v>0.91</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>14.75</v>
+        <v>1.48</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.25</v>
+        <v>0.43</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>18.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>194.12</v>
+        <v>19.41</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>37.04</v>
+        <v>3.7</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>24.89</v>
+        <v>2.49</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>13.04</v>
+        <v>1.3</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>25.5</v>
+        <v>2.55</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>10.79</v>
+        <v>1.08</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>11.25</v>
+        <v>1.12</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>48.03</v>
+        <v>4.8</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41673.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>23.95</v>
+        <v>2.4</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>52.26</v>
+        <v>5.23</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>42.84</v>
+        <v>4.28</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>18.82</v>
+        <v>1.88</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>72.63</v>
+        <v>7.26</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>29.09</v>
+        <v>2.91</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>19.25</v>
+        <v>1.93</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>20.96</v>
+        <v>2.1</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>22.25</v>
+        <v>2.23</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>18.8</v>
+        <v>1.88</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>26.81</v>
+        <v>2.68</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>15.75</v>
+        <v>1.57</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>278.82</v>
+        <v>27.88</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>52.56</v>
+        <v>5.26</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>17.35</v>
+        <v>1.74</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>35.44</v>
+        <v>3.54</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>18.59</v>
+        <v>1.86</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>35.49</v>
+        <v>3.55</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>15.33</v>
+        <v>1.53</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>15.92</v>
+        <v>1.59</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>22.02</v>
+        <v>2.2</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>66.01000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>21.69</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="9">
@@ -1383,16 +1383,16 @@
         <v>41673.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>0</v>
@@ -1401,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="K9" s="4" t="n">
         <v>0</v>
@@ -1422,16 +1422,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
         <v>0</v>
@@ -1440,46 +1440,46 @@
         <v>0</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41673.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>19.64</v>
+        <v>1.96</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>42.61</v>
+        <v>4.26</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>35.37</v>
+        <v>3.54</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>16.11</v>
+        <v>1.61</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>54.89</v>
+        <v>5.49</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>23.85</v>
+        <v>2.39</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>17.08</v>
+        <v>1.71</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>18.24</v>
+        <v>1.82</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.92</v>
+        <v>0.49</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>21.95</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="R10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Y10" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="S10" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>227.85</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>42.94</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>2.16</v>
-      </c>
       <c r="Z10" s="4" t="n">
-        <v>27.36</v>
+        <v>2.74</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>13.05</v>
+        <v>1.3</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>18.06</v>
+        <v>1.81</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>49.67</v>
+        <v>4.97</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_241.xlsx
+++ b/DATA_goal/Junction_Flooding_241.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,55 +652,55 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41673.34027777778</v>
+        <v>44922.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>0.33</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.28</v>
@@ -709,310 +709,310 @@
         <v>0.16</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>15.06</v>
+        <v>14.71</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41673.34722222222</v>
+        <v>44922.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.99</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.7</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.19</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.55</v>
+        <v>1.69</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.77</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.43</v>
+        <v>3.04</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.45</v>
+        <v>1.22</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.51</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.74</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.32</v>
+        <v>0.87</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.79</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.71</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.74</v>
+        <v>11.28</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.85</v>
+        <v>2.21</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.73</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.52</v>
+        <v>1.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.75</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="Z3" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AC3" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.28</v>
-      </c>
       <c r="AD3" s="4" t="n">
-        <v>0.32</v>
+        <v>0.91</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.38</v>
+        <v>2.81</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.34</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41673.35416666666</v>
+        <v>44922.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.23</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.15</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.05</v>
+        <v>0.52</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.61</v>
+        <v>0.35</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.17</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.65</v>
+        <v>1.15</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.29</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.12</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.14</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.21</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.23</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.19</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.26</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.14</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>1.31</v>
+        <v>0.54</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.15</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.18</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.21</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.41</v>
+        <v>1.11</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.08</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41673.36111111111</v>
+        <v>44922.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.66</v>
+        <v>3.45</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.96</v>
+        <v>2.79</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.9</v>
+        <v>4.39</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M5" s="4" t="n">
         <v>1.47</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>1.56</v>
-      </c>
       <c r="N5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.08</v>
@@ -1021,673 +1021,153 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.3</v>
+        <v>18.15</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.67</v>
+        <v>3.45</v>
       </c>
       <c r="V5" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="X5" s="4" t="n">
         <v>1.21</v>
       </c>
-      <c r="W5" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.29</v>
-      </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.42</v>
+        <v>2.19</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.46</v>
+        <v>3.97</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41673.36805555555</v>
+        <v>44922.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="N6" s="4" t="n">
         <v>1.94</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="O6" s="4" t="n">
-        <v>1.53</v>
+        <v>6.02</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.17</v>
+        <v>8.52</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.29</v>
+        <v>5.22</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.41</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>22.5</v>
+        <v>84.25</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.27</v>
+        <v>16.96</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.41</v>
+        <v>5.55</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.87</v>
+        <v>11.26</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.5</v>
+        <v>5.86</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.22</v>
+        <v>1.03</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.89</v>
+        <v>12.49</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.24</v>
+        <v>4.9</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.1</v>
+        <v>4.42</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.3</v>
+        <v>5.19</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.79</v>
+        <v>7.02</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.39</v>
+        <v>24.09</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.79</v>
+        <v>3.05</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41673.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41673.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>27.88</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41673.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41673.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41673.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>15.42</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>33.45</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>27.87</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>48.11</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>17.27</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>177.26</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>22.84</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>23.38</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>43.93</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>13.97</v>
+        <v>6.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_241.xlsx
+++ b/DATA_goal/Junction_Flooding_241.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44922.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.78</v>
+        <v>27.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.77</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.92</v>
+        <v>29.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.71</v>
+        <v>147.12</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.81</v>
+        <v>28.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.64</v>
+        <v>26.43</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44922.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.93</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.19</v>
+        <v>21.89</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.7</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.04</v>
+        <v>30.36</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.37</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.28</v>
+        <v>112.85</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.12</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.42</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.47</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.91</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.96</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.08</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.81</v>
+        <v>28.06</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44922.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.5</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.36</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.35</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.05</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44922.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.67</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.45</v>
+        <v>34.48</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.79</v>
+        <v>27.89</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.39</v>
+        <v>43.88</v>
       </c>
       <c r="I5" s="4" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>181.49</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>34.54</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>1.92</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.19</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.88</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.61</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.5</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.97</v>
+        <v>39.65</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_241.xlsx
+++ b/DATA_goal/Junction_Flooding_241.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,37 +445,37 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.42</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.49</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.78</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.77</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.19</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.22</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.93</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.87</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.59</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>147.12</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>28.07</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.23</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.73</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.86</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.65</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.07</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.38</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.43</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.96</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.71</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44922.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.93</v>
+        <v>9.935</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.02</v>
+        <v>7.023</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.544</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.89</v>
+        <v>21.888</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>16.92</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.7</v>
+        <v>7.695</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>30.36</v>
+        <v>30.356</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.22</v>
+        <v>12.216</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.14</v>
+        <v>5.136</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.37</v>
+        <v>7.367</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>8.717000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>9.380000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.54</v>
+        <v>2.537</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11</v>
+        <v>10.998</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.05</v>
+        <v>7.055</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.326</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.823</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>112.85</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.12</v>
+        <v>22.123</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.42</v>
+        <v>14.422</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.47</v>
+        <v>7.471</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.62</v>
+        <v>1.625</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.12</v>
+        <v>15.124</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.91</v>
+        <v>5.911</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.96</v>
+        <v>6.961</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.08</v>
+        <v>9.079000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.06</v>
+        <v>28.059</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.91</v>
+        <v>3.912</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.111000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -863,40 +863,40 @@
         <v>44922.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.28</v>
+        <v>2.277</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.47</v>
+        <v>1.467</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.831</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.21</v>
+        <v>5.208</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.49</v>
+        <v>3.493</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.71</v>
+        <v>1.714</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.5</v>
+        <v>11.505</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.91</v>
+        <v>2.909</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.16</v>
+        <v>1.155</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.37</v>
+        <v>1.367</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>2.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.31</v>
+        <v>2.308</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>0.62</v>
@@ -905,61 +905,61 @@
         <v>1.88</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.59</v>
+        <v>2.593</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.93</v>
+        <v>1.934</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.844</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.396</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.36</v>
+        <v>21.356</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.57</v>
+        <v>5.569</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.74</v>
+        <v>1.735</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.47</v>
+        <v>3.474</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.696</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.637</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.35</v>
+        <v>5.353</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.53</v>
+        <v>1.533</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.54</v>
+        <v>1.541</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.8</v>
+        <v>1.798</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.11</v>
+        <v>2.114</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.05</v>
+        <v>11.054</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.17</v>
+        <v>2.174</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>14.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44922.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>16.72</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>84.25</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>24.09</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_241.xlsx
+++ b/DATA_goal/Junction_Flooding_241.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,12 +443,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
@@ -458,19 +458,19 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,103 +967,207 @@
         <v>44922.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.75</v>
+        <v>15.749</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.67</v>
+        <v>11.673</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.08</v>
+        <v>1.076</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>34.48</v>
+        <v>34.482</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.89</v>
+        <v>27.888</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.34</v>
+        <v>12.336</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>43.88</v>
+        <v>43.883</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.44</v>
+        <v>8.439</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>12.43</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.82</v>
+        <v>13.819</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>14.73</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.98</v>
+        <v>3.983</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>17.56</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.57</v>
+        <v>10.571</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.754</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.7</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>181.49</v>
+        <v>181.494</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.54</v>
+        <v>34.541</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.1</v>
+        <v>23.097</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.14</v>
+        <v>12.141</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.92</v>
+        <v>1.922</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.88</v>
+        <v>21.879</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>9.02</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.61</v>
+        <v>10.607</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.5</v>
+        <v>14.496</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.65</v>
+        <v>39.651</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.39</v>
+        <v>6.391</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.32</v>
+        <v>14.317</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44922.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>84.25</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>6.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_241.xlsx
+++ b/DATA_goal/Junction_Flooding_241.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,12 +443,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
@@ -458,19 +458,19 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,207 +967,103 @@
         <v>44922.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.749</v>
+        <v>15.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.673</v>
+        <v>11.67</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.076</v>
+        <v>1.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>34.482</v>
+        <v>34.48</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.888</v>
+        <v>27.89</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.336</v>
+        <v>12.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>43.883</v>
+        <v>43.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.197</v>
+        <v>19.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.439</v>
+        <v>8.44</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>12.43</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.819</v>
+        <v>13.82</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>14.73</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.983</v>
+        <v>3.98</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.407</v>
+        <v>12.41</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>17.56</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.571</v>
+        <v>10.57</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.7</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>181.494</v>
+        <v>181.49</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.541</v>
+        <v>34.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.452</v>
+        <v>11.45</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.097</v>
+        <v>23.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.141</v>
+        <v>12.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.922</v>
+        <v>1.92</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.879</v>
+        <v>21.88</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.115</v>
+        <v>10.12</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>9.02</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.607</v>
+        <v>10.61</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.496</v>
+        <v>14.5</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.535</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.651</v>
+        <v>39.65</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.391</v>
+        <v>6.39</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.317</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44922.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>16.72</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>84.25</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>24.09</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.94</v>
+        <v>14.32</v>
       </c>
     </row>
   </sheetData>
